--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-07 14:16:41</t>
+  </si>
+  <si>
+    <t>2016-01-07 14:17:25</t>
+  </si>
+  <si>
     <t>1dae8f16-580b-41df-86c4-dea2b1bc2c57.63d995da3bcf9121499df767357e9ac1b452aa74.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>a6da3a44-0a20-42f7-8585-da3039dcbb2e.b40c99edc99d64de8039f4ab4e0228d53227b034.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-07 14:16:53</t>
+  </si>
+  <si>
+    <t>2016-01-07 14:17:46</t>
   </si>
 </sst>
 </file>
@@ -265,7 +277,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -274,7 +286,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -340,19 +352,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -366,19 +378,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 07:20:45</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:21:31</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 07:18:43</t>
   </si>
   <si>
     <t>2016-01-08 07:19:41</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 07:20:55</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:21:50</t>
+  </si>
+  <si>
+    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 07:18:54</t>
   </si>
   <si>
     <t>2016-01-08 07:20:01</t>
-  </si>
-  <si>
-    <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -265,7 +277,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -274,7 +286,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -340,19 +352,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -366,19 +378,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 07:20:45</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:21:31</t>
+    <t>2016-01-08 07:22:27</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:23:11</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>16be212c-3060-485d-a738-6ea35e56d0fe.e6ea0de1ebce7a73d054aa171ad40132b50c5c58.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 07:20:55</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:21:50</t>
+    <t>2016-01-08 07:22:40</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:23:29</t>
   </si>
   <si>
     <t>5fdb27c2-e66c-4e86-8a5f-81dec6e70e38.63d6bebc2d2ed66313c09dba1359884cba252412.de-de.xlf</t>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 07:39:12</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:39:54</t>
+  </si>
+  <si>
     <t>ed55902c-b448-49d6-b25d-169a80caaffb.3219df02ef41a5c14429ffa3c5d1052d10911eeb.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:39:22</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:40:13</t>
   </si>
 </sst>
 </file>
@@ -315,7 +327,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -324,7 +336,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -393,19 +405,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -419,19 +431,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -76,10 +76,10 @@
     <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 07:39:12</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:39:54</t>
+    <t>2016-01-08 07:40:51</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:41:40</t>
   </si>
   <si>
     <t>ed55902c-b448-49d6-b25d-169a80caaffb.3219df02ef41a5c14429ffa3c5d1052d10911eeb.de-de.xlf</t>
@@ -94,10 +94,10 @@
     <t>f6d7be87-2161-4471-9d93-20d3e1b3a1bc.2b98320027cb68c69c9f4e82641520a3ce755894.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 07:39:22</t>
-  </si>
-  <si>
-    <t>2016-01-08 07:40:13</t>
+    <t>2016-01-08 07:41:01</t>
+  </si>
+  <si>
+    <t>2016-01-08 07:41:58</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 09:13:04</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:13:46</t>
+  </si>
+  <si>
     <t>3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:13:13</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:14:04</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -76,10 +76,10 @@
     <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 09:13:04</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:13:46</t>
+    <t>2016-01-08 09:14:44</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:15:27</t>
   </si>
   <si>
     <t>3748dc1b-f3c1-4aec-a98f-81de8e16bc45.97f35736aa506e274f75bb9cee2fcdf9158138c9.de-de.xlf</t>
@@ -94,10 +94,10 @@
     <t>8320dd9d-1e82-4a89-9cc3-17c4fdf2d0cc.344f0276e2e86490aeccb670d17f812436b61d19.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 09:13:13</t>
-  </si>
-  <si>
-    <t>2016-01-08 09:14:04</t>
+    <t>2016-01-08 09:14:54</t>
+  </si>
+  <si>
+    <t>2016-01-08 09:15:47</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 10:19:59</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:20:42</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 10:18:16</t>
   </si>
   <si>
     <t>2016-01-08 10:18:57</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 10:20:10</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:21:00</t>
+  </si>
+  <si>
+    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 10:18:26</t>
   </si>
   <si>
     <t>2016-01-08 10:19:14</t>
-  </si>
-  <si>
-    <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 10:19:59</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:20:42</t>
+    <t>2016-01-08 10:21:38</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:22:22</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>100a6e02-bd0a-4afb-9ed5-5fbd04d51c95.9478ed2a18dbe8cd874dd257c68125b2804d0be0.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 10:20:10</t>
-  </si>
-  <si>
-    <t>2016-01-08 10:21:00</t>
+    <t>2016-01-08 10:21:47</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:22:39</t>
   </si>
   <si>
     <t>6d4d24e5-3863-41b9-bffa-bd1be493865d.7a6365a22bd1992e050e0a131f97a9cbd75f3b47.de-de.xlf</t>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 11:11:57</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:12:41</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 11:10:19</t>
   </si>
   <si>
     <t>2016-01-08 11:10:57</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 11:12:07</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:12:57</t>
+  </si>
+  <si>
+    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 11:10:29</t>
   </si>
   <si>
     <t>2016-01-08 11:11:14</t>
-  </si>
-  <si>
-    <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/oltest/yuwzho/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:11:57</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:12:41</t>
+    <t>2016-01-08 11:13:38</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:14:20</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>0c38d88b-cef0-44dd-8447-a71ab02f33f1.5884fe4d51cabbabbb14f8e5ff20dae58bc4b8c7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:12:07</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:12:57</t>
+    <t>2016-01-08 11:13:47</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:14:36</t>
   </si>
   <si>
     <t>f5d1ef39-a170-47c2-8763-9c171c7a96fd.c4abc76995427391f96ef9ac5976d894f22abe5e.de-de.xlf</t>
